--- a/graphs/draft5/221208_TableS1_variable_list.xlsx
+++ b/graphs/draft5/221208_TableS1_variable_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/peter_regier_pnnl_gov/Documents/Documents/projects/optio2/opti_TAI/graphs/draft5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/peter_regier_pnnl_gov/Documents/Documents/GitHub/peterregier/opti_o2/graphs/draft5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{C1C57DBF-4F5A-D544-BEE1-F492D95208C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D2A0992-F9EC-F849-94BF-E23F3BC384E8}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{C1C57DBF-4F5A-D544-BEE1-F492D95208C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91079D6A-C245-8742-9429-60BFA021FC2D}"/>
   <bookViews>
     <workbookView xWindow="3880" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{272B1B17-40BE-564C-BB8C-54692FC72AA2}"/>
   </bookViews>
@@ -95,9 +95,6 @@
     <t>mm</t>
   </si>
   <si>
-    <t>Photosynthetically active radiation</t>
-  </si>
-  <si>
     <t>Barometric pressure</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>W/m2</t>
+  </si>
+  <si>
+    <t>Solar Radiative Flux</t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="A1:C11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -515,7 +515,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -608,10 +608,10 @@
     </row>
     <row r="10" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>16</v>
@@ -619,10 +619,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>16</v>
